--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="986"/>
   </bookViews>
   <sheets>
-    <sheet name="Full1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Full1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="91">
   <si>
     <t>Task</t>
   </si>
@@ -68,7 +67,7 @@
     <t>Andreu Rojas</t>
   </si>
   <si>
-    <t>"Level Analysis" (wiki) </t>
+    <t>"Level Analysis" (wiki)</t>
   </si>
   <si>
     <t>"Scores" (wiki)</t>
@@ -239,17 +238,62 @@
     <t>Bobbles animations</t>
   </si>
   <si>
-    <t>Jordi Oña </t>
+    <t>Jordi Oña</t>
+  </si>
+  <si>
+    <t>Duplicate Board</t>
+  </si>
+  <si>
+    <t>Implement fade to black</t>
+  </si>
+  <si>
+    <t>Implement input</t>
+  </si>
+  <si>
+    <t>Implement Render Module</t>
+  </si>
+  <si>
+    <t>0,25h</t>
+  </si>
+  <si>
+    <t>Implemented Window Module</t>
+  </si>
+  <si>
+    <t>Implemented Texture Module</t>
+  </si>
+  <si>
+    <t>Name window</t>
+  </si>
+  <si>
+    <t>0,1h</t>
+  </si>
+  <si>
+    <t>User Interface module</t>
+  </si>
+  <si>
+    <t>Start screen module</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Implemented Extra Bobbles</t>
+  </si>
+  <si>
+    <t>0,75h</t>
+  </si>
+  <si>
+    <t>Create OnCollision</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -258,23 +302,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <i val="true"/>
+      <b/>
+      <i/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -291,7 +320,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -299,74 +328,332 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B2:E56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E67"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C47" activeCellId="0" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.8469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.969387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.1683673469388"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.8112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.71938775510204"/>
+    <col min="1" max="1" width="9.7109375"/>
+    <col min="2" max="2" width="41.85546875"/>
+    <col min="3" max="3" width="30"/>
+    <col min="4" max="4" width="28.140625"/>
+    <col min="5" max="5" width="18.85546875"/>
+    <col min="6" max="1025" width="9.7109375"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -380,713 +667,862 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="0" t="s">
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="0" t="s">
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C20" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D20" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C21" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C22" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C23" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C24" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C25" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D25" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C26" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D26" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C27" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D27" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E27" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C28" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C29" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D29" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C30" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C32" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D32" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E32" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="s">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C33" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C34" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C35" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="0" t="s">
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="s">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C36" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
+      <c r="D36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C37" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0" t="s">
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C38" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D38" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="s">
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C39" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D39" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="s">
+      <c r="E39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C40" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D40" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="E40" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="s">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C41" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" s="0" t="s">
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="s">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C42" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="s">
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C43" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0" t="s">
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C44" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C45" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C46" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C47" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" s="0" t="s">
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C48" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D48" t="s">
         <v>24</v>
       </c>
-      <c r="E46" s="0" t="s">
+      <c r="E48" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C49" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D49" t="s">
         <v>36</v>
       </c>
-      <c r="E47" s="0" t="s">
+      <c r="E49" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="0" t="s">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C50" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="0" t="s">
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="0" t="s">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C51" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E49" s="0" t="s">
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="0" t="s">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>67</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C52" t="s">
         <v>30</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D52" t="s">
         <v>36</v>
       </c>
-      <c r="E50" s="0" t="s">
+      <c r="E52" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="0" t="s">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C53" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E51" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="0" t="s">
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>69</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C54" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" s="0" t="s">
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="0" t="s">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>70</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C55" t="s">
         <v>5</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D55" t="s">
         <v>36</v>
       </c>
-      <c r="E53" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="0" t="s">
+      <c r="E55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>71</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C56" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="0" t="s">
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>72</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C57" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="0" t="s">
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>73</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C58" t="s">
         <v>74</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D58" t="s">
         <v>36</v>
       </c>
-      <c r="E56" s="0" t="s">
-        <v>6</v>
+      <c r="E58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s">
+        <v>36</v>
+      </c>
+      <c r="E60" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" t="s">
+        <v>79</v>
+      </c>
+      <c r="E64" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>90</v>
+      </c>
+      <c r="C67" t="s">
+        <v>86</v>
+      </c>
+      <c r="D67" t="s">
+        <v>87</v>
+      </c>
+      <c r="E67" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fran\Desktop\Puzzle-Bobble\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="986"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="97">
   <si>
     <t>Task</t>
   </si>
@@ -287,6 +292,24 @@
   </si>
   <si>
     <t>Create OnCollision</t>
+  </si>
+  <si>
+    <t>Implement Win/Lose sprites</t>
+  </si>
+  <si>
+    <t>Solve right colliders problems</t>
+  </si>
+  <si>
+    <t>Mecanism sprites</t>
+  </si>
+  <si>
+    <t>Polish work on sprites</t>
+  </si>
+  <si>
+    <t>Fran Ruiz, Andreu Rojas</t>
+  </si>
+  <si>
+    <t>Create 2 players map (disposition of the bobbles)</t>
   </si>
 </sst>
 </file>
@@ -346,6 +369,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -393,7 +419,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -428,7 +454,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -637,16 +663,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E67"/>
+  <dimension ref="B2:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375"/>
-    <col min="2" max="2" width="41.85546875"/>
+    <col min="2" max="2" width="44" customWidth="1"/>
     <col min="3" max="3" width="30"/>
     <col min="4" max="4" width="28.140625"/>
     <col min="5" max="5" width="18.85546875"/>
@@ -871,10 +897,10 @@
         <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
@@ -1193,10 +1219,10 @@
         <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
@@ -1263,10 +1289,10 @@
         <v>30</v>
       </c>
       <c r="D49" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="E49" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
@@ -1519,6 +1545,76 @@
       </c>
       <c r="E67" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" t="s">
+        <v>30</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>96</v>
+      </c>
+      <c r="C69" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>92</v>
+      </c>
+      <c r="C70" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" t="s">
+        <v>36</v>
+      </c>
+      <c r="E70" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" t="s">
+        <v>95</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
